--- a/MEDIA/100000_ 1101    _001_會計科目餘額明細.xlsx
+++ b/MEDIA/100000_ 1101    _001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100000_ 1101    _001_2020-10-13~2020-10-13)</t>
+          <t>森邦(股)會計科目餘額明細(100000_ 1101    _001_2020-11-26~2020-11-26)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>1490436</v>
+        <v>11576</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖10/13總收現金                    </t>
+          <t>沖11/26總收現金                    </t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-20698</v>
+        <v>-1456868</v>
       </c>
       <c r="G4" t="n">
-        <v>1469738</v>
+        <v>-1445292</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>112037</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,21 +483,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖10/10總收現金                    </t>
+          <t>支付11/26外務油資+停車費               </t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-9024</v>
+        <v>-1225</v>
       </c>
       <c r="G5" t="n">
-        <v>1460714</v>
+        <v>-1446517</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>112037</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>屏東自由                                    </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖10/11總收現金                    </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13917</v>
       </c>
       <c r="F6" t="n">
-        <v>-1490291</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-29577</v>
+        <v>-1432600</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>109982</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000129</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>屏東大學                                    </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>738</v>
+        <v>13776</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-28839</v>
+        <v>-1418824</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>109921</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000363</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>台中安德                                    </t>
+          <t>屏東莊敬                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-3839</v>
+        <v>-1413824</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000428</t>
+          <t>1000365</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>和美和線                                    </t>
+          <t>潮州永安                                    </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17000</v>
+        <v>9377</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>13161</v>
+        <v>-1404447</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000463</t>
+          <t>1000367</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>善化蓮潭                                    </t>
+          <t>屏東瑞光                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -692,29 +692,29 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21617</v>
+        <v>7387</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34778</v>
+        <v>-1397060</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1000587</t>
+          <t>1000446</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>彰化彰德                                    </t>
+          <t>里港中山                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11914</v>
+        <v>9877</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>46692</v>
+        <v>-1387183</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000498</t>
+          <t>1000460</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>溪湖太平                                    </t>
+          <t>內埔光明                                    </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -774,29 +774,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14735</v>
+        <v>16606</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>61427</v>
+        <v>-1370577</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112047</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000518</t>
+          <t>1000732</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>鹿港三民                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19295</v>
+        <v>648</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80722</v>
+        <v>-1369929</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>111984</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000698</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>善化南科興農	                                 </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16790</v>
+        <v>342</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>97512</v>
+        <v>-1369587</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>111984</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000831</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>沙鹿四平	                                   </t>
+          <t>楊梅大成                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>131512</v>
+        <v>-1344587</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000837</t>
+          <t>1000543</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>埤頭彰水                                    </t>
+          <t>觀音新坡                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7700</v>
+        <v>18592</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139212</v>
+        <v>-1325995</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000522</t>
+          <t>1000617</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>潭子頭家                                    </t>
+          <t>三重三民	                                   </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -979,29 +979,29 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29000</v>
+        <v>1880</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>168212</v>
+        <v>-1324115</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000640</t>
+          <t>1000965</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>台中水景	                                   </t>
+          <t>竹山竹山                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1020,29 +1020,29 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14361</v>
+        <v>12273</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>182573</v>
+        <v>-1311842</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000891</t>
+          <t>1000273</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹿港彰濱	                                   </t>
+          <t>新莊建安                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1061,29 +1061,29 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9131</v>
+        <v>20246</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>191704</v>
+        <v>-1291596</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000904</t>
+          <t>1000246</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>潭子圓通                                    </t>
+          <t>板橋新生                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1102,29 +1102,29 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>16896</v>
+        <v>17797</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>208600</v>
+        <v>-1273799</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000778</t>
+          <t>1000288</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>北斗文苑	                                   </t>
+          <t>中和民樂                                    </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,29 +1143,29 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9177</v>
+        <v>30841</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>217777</v>
+        <v>-1242958</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000838</t>
+          <t>1000645</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>太平勤益	                                   </t>
+          <t>中央大學校內                                  </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1184,29 +1184,29 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19080</v>
+        <v>13000</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>236857</v>
+        <v>-1229958</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000907</t>
+          <t>1000646</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>伸港中興	                                   </t>
+          <t>學甲建國                                    </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1225,29 +1225,29 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10079</v>
+        <v>8127</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>246936</v>
+        <v>-1221831</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000929</t>
+          <t>1000411</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>佳里延平                                    </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1266,29 +1266,29 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>239</v>
+        <v>31976</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>247175</v>
+        <v>-1189855</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000416</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>八德介壽                                    </t>
+          <t>善化蓮潭                                    </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9190</v>
+        <v>10068</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>256365</v>
+        <v>-1179787</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1000009</t>
+          <t>1000587</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>桃園桃鶯                                    </t>
+          <t>泰山海德堡                                   </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1348,29 +1348,29 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11293</v>
+        <v>8000</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>267658</v>
+        <v>-1171787</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1000036</t>
+          <t>1000469</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>三峽中華                                    </t>
+          <t>土城千歲                                    </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1389,29 +1389,29 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>20072</v>
+        <v>2561</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>287730</v>
+        <v>-1169226</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1000094</t>
+          <t>1000559</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>彰化牛埔                                    </t>
+          <t>中和遠雄                                    </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1430,29 +1430,29 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6500</v>
+        <v>5245</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>294230</v>
+        <v>-1163981</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1000900</t>
+          <t>1000694</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大雅中山                                    </t>
+          <t>比佛利                                     </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1471,29 +1471,29 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3802</v>
+        <v>11000</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>298032</v>
+        <v>-1152981</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1000022</t>
+          <t>1000703</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>台中上安                                    </t>
+          <t>新營民治	                                   </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1512,29 +1512,29 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21555</v>
+        <v>41616</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>319587</v>
+        <v>-1111365</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1000028</t>
+          <t>1000906</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>吉安南埔                                    </t>
+          <t>嘉義民族                                    </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1553,29 +1553,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>23600</v>
+        <v>26578</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>343187</v>
+        <v>-1084787</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1000128</t>
+          <t>1000092</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>高雄鼎泰                                    </t>
+          <t>板橋龍興                                    </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1594,29 +1594,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10490</v>
+        <v>10500</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>353677</v>
+        <v>-1074287</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1000200</t>
+          <t>1000566</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>台中四維                                    </t>
+          <t>板橋大同                                    </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1635,29 +1635,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22987</v>
+        <v>18106</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>376664</v>
+        <v>-1056181</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1000077</t>
+          <t>1000729</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>台中高工                                    </t>
+          <t>中和興南                                    </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1676,29 +1676,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>17500</v>
+        <v>1064</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>394164</v>
+        <v>-1055117</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1000167</t>
+          <t>1000787</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>苗栗玉清                                    </t>
+          <t>朴子海通                                    </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1717,29 +1717,29 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>30000</v>
+        <v>28014</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>424164</v>
+        <v>-1027103</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1000105</t>
+          <t>1000161</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>苗栗至公                                    </t>
+          <t>嘉義彌陀                                    </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1758,29 +1758,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12050</v>
+        <v>10126</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>436214</v>
+        <v>-1016977</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1000308</t>
+          <t>1000260</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>仁武仁雄                                    </t>
+          <t>北市中華                                    </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1799,29 +1799,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15872</v>
+        <v>11346</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>452086</v>
+        <v>-1005631</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>1000240</t>
+          <t>1000320</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>頭城新興                                    </t>
+          <t>土城明峯                                    </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14227</v>
+        <v>11000</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>466313</v>
+        <v>-994631</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1000333</t>
+          <t>1000581</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>羅東國中                                    </t>
+          <t>迴龍光啟                                    </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1881,29 +1881,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46818</v>
+        <v>26000</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>513131</v>
+        <v>-968631</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>1000306</t>
+          <t>1000697</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>台中五權五                                   </t>
+          <t>板橋中山	                                   </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1922,29 +1922,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13691</v>
+        <v>16060</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>526822</v>
+        <v>-952571</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1000494</t>
+          <t>1000799</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>苗栗府前                                    </t>
+          <t>中和泰和                                    </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1963,29 +1963,29 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>15800</v>
+        <v>17000</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>542622</v>
+        <v>-935571</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1000745</t>
+          <t>1000807</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>宜蘭女中                                    </t>
+          <t>北市松隆                                    </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2004,29 +2004,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26000</v>
+        <v>9438</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>568622</v>
+        <v>-926133</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1000447</t>
+          <t>1000339</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>羅東站前                                    </t>
+          <t>北市建國                                    </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2045,29 +2045,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22464</v>
+        <v>18666</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>591086</v>
+        <v>-907467</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1000510</t>
+          <t>1000360</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>羅東中華                                    </t>
+          <t>新莊民安                                    </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2086,29 +2086,29 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>20188</v>
+        <v>17000</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>611274</v>
+        <v>-890467</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1000634</t>
+          <t>1000739</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>北市世新                                    </t>
+          <t>永和永平                                    </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2127,29 +2127,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42716</v>
+        <v>12290</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>653990</v>
+        <v>-878177</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1000661</t>
+          <t>1000818</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>苑裡新興                                    </t>
+          <t>永和中山	                                   </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2168,29 +2168,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>23561</v>
+        <v>7600</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>677551</v>
+        <v>-870577</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1000811</t>
+          <t>1000869</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>台中文華	                                   </t>
+          <t>北市敦北                                    </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,29 +2209,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>16300</v>
+        <v>33000</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>693851</v>
+        <v>-837577</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>109978</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1000921</t>
+          <t>1000429</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>高雄河堤                                    </t>
+          <t>嘉義太保                                    </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2250,29 +2250,29 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>18000</v>
+        <v>26639</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>711851</v>
+        <v>-810938</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1000585</t>
+          <t>1000608</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>鶯歌鶯桃                                    </t>
+          <t>板橋樂群	                                   </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2291,29 +2291,29 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>52405</v>
+        <v>15910</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>764256</v>
+        <v>-795028</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112018</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>1000607</t>
+          <t>1000825</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>台中學府                                    </t>
+          <t>台北敦煌                                    </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2332,29 +2332,29 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>45034</v>
+        <v>10273</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>809290</v>
+        <v>-784755</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1000687</t>
+          <t>1000048</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>宜蘭國中	                                   </t>
+          <t>北市忠義                                    </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2373,29 +2373,29 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23699</v>
+        <v>17664</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>832989</v>
+        <v>-767091</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1000877</t>
+          <t>1000189</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>其他                                      </t>
+          <t>新店永平	                                   </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2414,29 +2414,29 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>563</v>
+        <v>10000</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>833552</v>
+        <v>-757091</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>1000872</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>台中海德堡                                   </t>
+          <t>雲林水林                                    </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2455,29 +2455,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11035</v>
+        <v>15000</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>844587</v>
+        <v>-742091</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1000037</t>
+          <t>1000741</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>三峽中山                                    </t>
+          <t>嘉義興美                                    </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2496,29 +2496,29 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>20744</v>
+        <v>14603</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>865331</v>
+        <v>-727488</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1000610</t>
+          <t>1000848</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>宜蘭光復                                    </t>
+          <t>台北錦州                                    </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2537,29 +2537,29 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4941</v>
+        <v>6000</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>870272</v>
+        <v>-721488</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1000666</t>
+          <t>1000212</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>台中師苑	                                   </t>
+          <t>板橋新民	                                   </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2578,29 +2578,29 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>15000</v>
+        <v>20908</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>885272</v>
+        <v>-700580</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>109975</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>1000888</t>
+          <t>1000930</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>豐原西安                                    </t>
+          <t>中壢三光	                                   </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2619,29 +2619,29 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>31934</v>
+        <v>15815</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>917206</v>
+        <v>-684765</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112014</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1000040</t>
+          <t>1000934</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>台中嶺東                                    </t>
+          <t>員林育英                                    </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2660,29 +2660,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>8391</v>
+        <v>23796</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>925597</v>
+        <v>-660969</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1000154</t>
+          <t>1000221</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>台中新民                                    </t>
+          <t>北市吳興	                                   </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2701,29 +2701,29 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4390</v>
+        <v>5100</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>929987</v>
+        <v>-655869</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1000660</t>
+          <t>1000878</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>台中忠勇店                                   </t>
+          <t>北市伊通	                                   </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2742,29 +2742,29 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10378</v>
+        <v>14000</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>940365</v>
+        <v>-641869</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112016</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1000728</t>
+          <t>1000924</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>礁溪中山                                    </t>
+          <t>北市士商	                                   </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2783,29 +2783,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>23202</v>
+        <v>12279</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>963567</v>
+        <v>-629590</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1000685</t>
+          <t>1000800</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>宜蘭中山                                    </t>
+          <t>淡水淡金	                                   </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2824,29 +2824,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6600</v>
+        <v>12144</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>970167</v>
+        <v>-617446</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1000696</t>
+          <t>1000827</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>新社中和                                    </t>
+          <t>淡水新民	                                   </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2865,29 +2865,29 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25477</v>
+        <v>8285</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>995644</v>
+        <v>-609161</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1000069</t>
+          <t>1000839</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大甲育英                                    </t>
+          <t>三重大仁                                    </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2906,29 +2906,29 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5218</v>
+        <v>2920</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1000862</v>
+        <v>-606241</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1000168</t>
+          <t>1000258</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>台中大進	                                   </t>
+          <t>平鎮文化                                    </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2947,29 +2947,29 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8106</v>
+        <v>9266</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1008968</v>
+        <v>-596975</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1000774</t>
+          <t>1000293</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>台中晨津	                                   </t>
+          <t>中壢成章                                    </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2988,29 +2988,29 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>17833</v>
+        <v>18100</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1026801</v>
+        <v>-578875</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>109981</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1000933</t>
+          <t>1000053</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>宜蘭南屏                                    </t>
+          <t>北市石牌	                                   </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3029,29 +3029,29 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3600</v>
+        <v>39899</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1030401</v>
+        <v>-538976</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1000755</t>
+          <t>1000867</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>后里甲后                                    </t>
+          <t>埔里民生                                    </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3070,29 +3070,29 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7168</v>
+        <v>32268</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1037569</v>
+        <v>-506708</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1000228</t>
+          <t>1000346</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>外埔甲后                                    </t>
+          <t>霧峰亞洲大學                                  </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3111,29 +3111,29 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>10009</v>
+        <v>9198</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1047578</v>
+        <v>-497510</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1000272</t>
+          <t>1000479</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>鶯歌光明	                                   </t>
+          <t>桃園中平                                    </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3152,29 +3152,29 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>13697</v>
+        <v>11953</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>1061275</v>
+        <v>-485557</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>109972</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>1000885</t>
+          <t>1000605</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>台中松竹                                    </t>
+          <t>高雄鼎金                                    </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3193,29 +3193,29 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24291</v>
+        <v>27100</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1085566</v>
+        <v>-458457</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>1000049</t>
+          <t>1000108</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>神岡中山                                    </t>
+          <t>高雄永昌                                    </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3234,29 +3234,29 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3000</v>
+        <v>3080</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1088566</v>
+        <v>-455377</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1000311</t>
+          <t>1000119</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大甲三民                                    </t>
+          <t>淡水海都	                                   </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3275,29 +3275,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7000</v>
+        <v>13300</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1095566</v>
+        <v>-442077</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1000669</t>
+          <t>1000884</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大甲經國	                                   </t>
+          <t>蘆洲長安	                                   </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3316,29 +3316,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>9343</v>
+        <v>16600</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1104909</v>
+        <v>-425477</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>109976</t>
+          <t>112019</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1000858</t>
+          <t>1000932</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>烏日中山                                    </t>
+          <t>平鎮莎奇拉雅                                  </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3357,29 +3357,29 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27208</v>
+        <v>13000</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>1132117</v>
+        <v>-412477</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1000093</t>
+          <t>1000658</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>彰化彰美                                    </t>
+          <t>北市世新                                    </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3398,29 +3398,29 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>9678</v>
+        <v>20060</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1141795</v>
+        <v>-392417</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>1000164</t>
+          <t>1000661</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>善化光復                                    </t>
+          <t>台中十甲                                    </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3439,29 +3439,29 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38000</v>
+        <v>9109</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1179795</v>
+        <v>-383308</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1000125</t>
+          <t>1000233</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>彰化實踐                                    </t>
+          <t>高雄一心                                    </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3480,29 +3480,29 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28000</v>
+        <v>8526</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>1207795</v>
+        <v>-374782</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1000239</t>
+          <t>1000335</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>溪湖培英                                    </t>
+          <t>台中館前                                    </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3521,29 +3521,29 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>18767</v>
+        <v>20031</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>1226562</v>
+        <v>-354751</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>1000334</t>
+          <t>1000394</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>台中東山                                    </t>
+          <t>埔里中正                                    </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3562,29 +3562,29 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29000</v>
+        <v>18670</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>1255562</v>
+        <v>-336081</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1000229</t>
+          <t>1000674</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>台南站前                                    </t>
+          <t>萬能科大                                    </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3603,29 +3603,29 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>55178</v>
+        <v>7822</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>1310740</v>
+        <v>-328259</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1000268</t>
+          <t>1000401</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>彰化三民                                    </t>
+          <t>高雄英義                                    </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3644,29 +3644,29 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>10588</v>
+        <v>12845</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>1321328</v>
+        <v>-315414</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>1000359</t>
+          <t>1000432</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>彰化金馬                                    </t>
+          <t>三重中正北                                   </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3685,29 +3685,29 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7110</v>
+        <v>11500</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1328438</v>
+        <v>-303914</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>1000379</t>
+          <t>1000722</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>二林彰基                                    </t>
+          <t>平鎮上海                                    </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3726,29 +3726,29 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>14346</v>
+        <v>19228</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1342784</v>
+        <v>-284686</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>109973</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1000424</t>
+          <t>1000769</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>歸仁中正                                    </t>
+          <t>台中興大國光                                  </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3767,29 +3767,29 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>23675</v>
+        <v>11674</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>1366459</v>
+        <v>-273012</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1000316</t>
+          <t>1000485</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>秀水中山                                    </t>
+          <t>台中東興                                    </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3808,29 +3808,29 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9574</v>
+        <v>6242</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1376033</v>
+        <v>-266770</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112017</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1000347</t>
+          <t>1000546</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20201013</t>
+          <t>20201126</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>仁德嘉藥                                    </t>
+          <t>草屯太平                                    </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3849,22 +3849,596 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>11368</v>
+        <v>30000</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1387401</v>
+        <v>-236770</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>109977</t>
+          <t>112015</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1000454</t>
+          <t>1000779</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中壢長春                                    </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>28000</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-208770</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>112017</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1000558</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>高雄自強                                    </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-178770</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>112017</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>1000644</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>楊梅環東                                    </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>22200</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-156570</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>112014</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1000003</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>觀音觀音                                    </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>16752</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-139818</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>112014</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1000021</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>北市木新                                    </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>10628</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-129190</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>112015</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1000824</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>桃園國聖	                                   </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>5017</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-124173</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>112015</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1000828</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>台中忠明凱薩                                  </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-113173</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>112017</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1000761</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>台中五權                                    </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>14202</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-98971</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>112017</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>1000762</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>永和民權                                    </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-78971</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>112014</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1000214</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>觀音中正                                    </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>22829</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-56142</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>112014</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1000457</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>桃園國強	                                   </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>15909</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-40233</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>112015</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1000942</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>北市景福	                                   </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>11500</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-28733</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>112015</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1000951</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新莊新豐                                    </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>28900</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>167</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>112018</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1000142</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20201126</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1101  .001     </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>新莊昌明                                    </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>12500</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>12667</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>112018</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1000243</t>
         </is>
       </c>
     </row>
